--- a/data/CS1/shared ess/cs1_ESS.xlsx
+++ b/data/CS1/shared ess/cs1_ESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\shared ess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F50782-590D-4CE1-B82E-216EC3E6EFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C9B4B-8219-4521-BA71-070EAA3F2B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -27,6 +27,14 @@
     <sheet name="UpActivation, 2030, Summer" sheetId="52" r:id="rId12"/>
     <sheet name="DownActivation, 2030, Winter" sheetId="53" r:id="rId13"/>
     <sheet name="UpActivation, 2030, Winter" sheetId="54" r:id="rId14"/>
+    <sheet name="DownActivation, 2040, Summer" sheetId="57" r:id="rId15"/>
+    <sheet name="UpActivation, 2040, Summer" sheetId="58" r:id="rId16"/>
+    <sheet name="DownActivation, 2040, Winter" sheetId="59" r:id="rId17"/>
+    <sheet name="UpActivation, 2040, Winter" sheetId="60" r:id="rId18"/>
+    <sheet name="DownActivation, 2050, Summer" sheetId="61" r:id="rId19"/>
+    <sheet name="UpActivation, 2050, Summer" sheetId="62" r:id="rId20"/>
+    <sheet name="DownActivation, 2050, Winter" sheetId="63" r:id="rId21"/>
+    <sheet name="UpActivation, 2050, Winter" sheetId="64" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -48,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Price Curve, Normalized</t>
   </si>
@@ -462,24 +470,24 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4">
         <v>0.2</v>
@@ -501,12 +509,12 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>1.05</v>
@@ -527,12 +535,12 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>0.95</v>
@@ -553,7 +561,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
     </row>
   </sheetData>
@@ -570,9 +578,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -667,15 +675,15 @@
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$C$2</f>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4">
         <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$C$2</f>
-        <v>0.57200000000000006</v>
+        <v>0.52</v>
       </c>
       <c r="G2" s="4">
         <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$C$2</f>
-        <v>0.49500000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$C$2</f>
@@ -691,15 +699,15 @@
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$C$2</f>
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="L2" s="4">
         <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$C$2</f>
-        <v>0.35200000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="M2" s="4">
         <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$C$2</f>
-        <v>0.38500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$C$2</f>
@@ -715,15 +723,15 @@
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$C$2</f>
-        <v>0.35200000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="R2" s="4">
         <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$C$2</f>
-        <v>0.38500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4">
         <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$C$2</f>
-        <v>0.45100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$C$2</f>
@@ -739,18 +747,18 @@
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$C$2</f>
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="X2" s="4">
         <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$C$2</f>
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="Y2" s="4">
         <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$C$2</f>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -851,7 +859,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -952,7 +960,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>0.23749999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1180,7 +1188,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1206,7 +1214,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1232,7 +1240,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1258,7 +1266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1298,9 +1306,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1377,21 +1385,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C2" s="4">
         <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$C$2</f>
-        <v>7.7000000000000013E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2" s="4">
         <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$C$2</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$C$2</f>
@@ -1407,15 +1415,15 @@
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I2" s="4">
         <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$C$2</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J2" s="4">
         <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$C$2</f>
@@ -1431,15 +1439,15 @@
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$C$2</f>
-        <v>7.7000000000000013E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O2" s="4">
         <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P2" s="4">
         <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$C$2</f>
-        <v>7.7000000000000013E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$C$2</f>
@@ -1455,15 +1463,15 @@
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U2" s="4">
         <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V2" s="4">
         <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$C$2</f>
@@ -1478,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1579,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1680,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1908,7 +1916,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1934,7 +1942,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1960,7 +1968,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1986,7 +1994,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2026,9 +2034,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2123,15 +2131,15 @@
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$C$2</f>
-        <v>0.49500000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="F2" s="4">
         <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$C$2</f>
-        <v>0.50600000000000012</v>
+        <v>0.46</v>
       </c>
       <c r="G2" s="4">
         <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$C$2</f>
-        <v>0.44000000000000006</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$C$2</f>
@@ -2147,15 +2155,15 @@
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$C$2</f>
-        <v>0.31900000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L2" s="4">
         <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$C$2</f>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="M2" s="4">
         <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$C$2</f>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$C$2</f>
@@ -2171,15 +2179,15 @@
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$C$2</f>
-        <v>0.30800000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R2" s="4">
         <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$C$2</f>
-        <v>0.30800000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S2" s="4">
         <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$C$2</f>
-        <v>0.35200000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$C$2</f>
@@ -2195,18 +2203,18 @@
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$C$2</f>
-        <v>0.29700000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="X2" s="4">
         <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$C$2</f>
-        <v>0.29700000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="Y2" s="4">
         <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$C$2</f>
-        <v>0.29700000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2307,7 +2315,7 @@
         <v>0.28350000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>0.25650000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>0.24300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2636,7 +2644,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2662,7 +2670,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2688,7 +2696,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2714,7 +2722,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2754,9 +2762,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2833,21 +2841,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="4">
         <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$C$2</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D2" s="4">
         <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$C$2</f>
@@ -2863,15 +2871,15 @@
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="4">
         <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$C$2</f>
-        <v>0.12100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="J2" s="4">
         <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$C$2</f>
-        <v>0.13200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$C$2</f>
@@ -2887,15 +2895,15 @@
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="4">
         <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$C$2</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P2" s="4">
         <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$C$2</f>
@@ -2911,15 +2919,15 @@
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$C$2</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U2" s="4">
         <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$C$2</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="V2" s="4">
         <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$C$2</f>
-        <v>0.13200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$C$2</f>
@@ -2934,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3237,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3338,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3364,7 +3372,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3390,7 +3398,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3416,7 +3424,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3442,7 +3450,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3482,9 +3490,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +3569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3579,15 +3587,15 @@
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$C$2</f>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4">
         <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$C$2</f>
-        <v>0.57200000000000006</v>
+        <v>0.52</v>
       </c>
       <c r="G2" s="4">
         <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$C$2</f>
-        <v>0.49500000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$C$2</f>
@@ -3603,15 +3611,15 @@
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$C$2</f>
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="L2" s="4">
         <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$C$2</f>
-        <v>0.35200000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="M2" s="4">
         <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$C$2</f>
-        <v>0.38500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$C$2</f>
@@ -3627,15 +3635,15 @@
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$C$2</f>
-        <v>0.35200000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="R2" s="4">
         <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$C$2</f>
-        <v>0.38500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4">
         <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$C$2</f>
-        <v>0.45100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$C$2</f>
@@ -3651,18 +3659,18 @@
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$C$2</f>
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="X2" s="4">
         <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$C$2</f>
-        <v>0.16500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="Y2" s="4">
         <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$C$2</f>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>0.23749999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4092,7 +4100,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4118,7 +4126,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4144,7 +4152,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4170,7 +4178,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4202,735 +4210,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C45C42-E061-4333-9A34-463F1D492D9A}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>2030</v>
-      </c>
-      <c r="C1">
-        <v>2040</v>
-      </c>
-      <c r="D1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111B6319-066E-4340-9AF4-F2B163DED3BB}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2030</v>
-      </c>
-      <c r="D1">
-        <v>2040</v>
-      </c>
-      <c r="E1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>345</v>
-      </c>
-      <c r="C2" s="2">
-        <v>143</v>
-      </c>
-      <c r="D2" s="2">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>345</v>
-      </c>
-      <c r="C3" s="2">
-        <v>198</v>
-      </c>
-      <c r="D3" s="2">
-        <v>174</v>
-      </c>
-      <c r="E3" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>345</v>
-      </c>
-      <c r="C4" s="2">
-        <v>248</v>
-      </c>
-      <c r="D4" s="2">
-        <v>248</v>
-      </c>
-      <c r="E4" s="2">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B572FD-490A-4B19-841A-3BE93797BAEE}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2030</v>
-      </c>
-      <c r="D1">
-        <v>2040</v>
-      </c>
-      <c r="E1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!B3*1000</f>
-        <v>69000</v>
-      </c>
-      <c r="C2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!C3*1000</f>
-        <v>39600</v>
-      </c>
-      <c r="D2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!D3*1000</f>
-        <v>34800.000000000007</v>
-      </c>
-      <c r="E2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!E3*1000</f>
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!B3*1000</f>
-        <v>276000</v>
-      </c>
-      <c r="C3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!C3*1000</f>
-        <v>158400</v>
-      </c>
-      <c r="D3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!D3*1000</f>
-        <v>139200.00000000003</v>
-      </c>
-      <c r="E3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!E3*1000</f>
-        <v>119200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F5FC8-CF35-4F33-8EB9-D8A2EB0A0537}">
-  <dimension ref="A1:Y3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="P3" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1496683-6AFD-4B3D-94FF-7E7F3E684C49}">
-  <dimension ref="A1:Y3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24C7C44-EE15-4C03-8A82-39CCA44AA4C7}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFF8E8C-85D1-411E-9DB3-F91CE96569FE}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5007,21 +4297,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C2" s="4">
         <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$C$2</f>
-        <v>7.7000000000000013E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2" s="4">
         <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$C$2</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$C$2</f>
@@ -5037,15 +4327,15 @@
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I2" s="4">
         <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$C$2</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J2" s="4">
         <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$C$2</f>
@@ -5061,15 +4351,15 @@
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$C$2</f>
-        <v>7.7000000000000013E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O2" s="4">
         <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P2" s="4">
         <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$C$2</f>
-        <v>7.7000000000000013E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$C$2</f>
@@ -5085,15 +4375,15 @@
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U2" s="4">
         <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V2" s="4">
         <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$C$2</f>
@@ -5108,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5209,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5310,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5411,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5512,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5538,7 +4828,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -5564,7 +4854,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5590,7 +4880,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -5616,7 +4906,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5648,17 +4938,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C369E7-B6AB-45B9-B040-9F1CCECCDAF3}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C100828-E134-4069-9A8C-79D16AA6C725}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5735,7 +5025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5753,15 +5043,15 @@
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$C$2</f>
-        <v>0.49500000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="F2" s="4">
         <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$C$2</f>
-        <v>0.50600000000000012</v>
+        <v>0.46</v>
       </c>
       <c r="G2" s="4">
         <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$C$2</f>
-        <v>0.44000000000000006</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$C$2</f>
@@ -5777,15 +5067,15 @@
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$C$2</f>
-        <v>0.31900000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L2" s="4">
         <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$C$2</f>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="M2" s="4">
         <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$C$2</f>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$C$2</f>
@@ -5801,15 +5091,15 @@
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$C$2</f>
-        <v>0.30800000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R2" s="4">
         <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$C$2</f>
-        <v>0.30800000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S2" s="4">
         <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$C$2</f>
-        <v>0.35200000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$C$2</f>
@@ -5825,18 +5115,18 @@
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$C$2</f>
-        <v>0.29700000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="X2" s="4">
         <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$C$2</f>
-        <v>0.29700000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="Y2" s="4">
         <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$C$2</f>
-        <v>0.29700000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5937,7 +5227,7 @@
         <v>0.28350000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6038,7 +5328,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6139,7 +5429,7 @@
         <v>0.25650000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6240,7 +5530,7 @@
         <v>0.24300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6266,7 +5556,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -6292,7 +5582,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6318,7 +5608,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -6344,7 +5634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6376,17 +5666,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E0CA-A0FD-445F-A847-1F5CF14E55ED}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B13D-D87B-4544-9843-4D44C47B5E01}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6463,21 +5753,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="4">
         <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$C$2</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D2" s="4">
         <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E2" s="4">
         <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$C$2</f>
@@ -6493,15 +5783,15 @@
       </c>
       <c r="H2" s="4">
         <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$C$2</f>
-        <v>0.11000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="4">
         <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$C$2</f>
-        <v>0.12100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="J2" s="4">
         <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$C$2</f>
-        <v>0.13200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="K2" s="4">
         <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$C$2</f>
@@ -6517,15 +5807,15 @@
       </c>
       <c r="N2" s="4">
         <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$C$2</f>
-        <v>8.8000000000000009E-2</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="4">
         <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$C$2</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P2" s="4">
         <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$C$2</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q2" s="4">
         <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$C$2</f>
@@ -6541,15 +5831,15 @@
       </c>
       <c r="T2" s="4">
         <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$C$2</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U2" s="4">
         <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$C$2</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="V2" s="4">
         <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$C$2</f>
-        <v>0.13200000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="W2" s="4">
         <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$C$2</f>
@@ -6564,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6665,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6766,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6867,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6968,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6994,7 +6284,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -7020,7 +6310,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7046,7 +6336,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -7072,7 +6362,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7102,4 +6392,6548 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE7E164-A3E1-4D2C-AE5B-63FB98093970}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$C$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$C$2</f>
+        <v>0.52</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$C$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$C$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$C$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$C$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$C$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$C$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$C$2</f>
+        <v>0.41</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$C$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$C$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$C$2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$D$2</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$D$2</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$D$2</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$D$2</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$D$2</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$D$2</f>
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$D$2</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$D$2</f>
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$D$2</f>
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$D$2</f>
+        <v>0.1575</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$D$2</f>
+        <v>0.1575</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$D$2</f>
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$E$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$E$2</f>
+        <v>0.52</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$E$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$E$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$E$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$E$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$E$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$E$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$E$2</f>
+        <v>0.41</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$E$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$E$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$E$2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$F$2</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$F$2</f>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$F$2</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$F$2</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$F$2</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$F$2</f>
+        <v>0.33249999999999996</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$F$2</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$F$2</f>
+        <v>0.33249999999999996</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$F$2</f>
+        <v>0.38949999999999996</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$F$2</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$F$2</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$F$2</f>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$G$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$G$2</f>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$G$2</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$G$2</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$G$2</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$G$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$G$2</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$G$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$G$2</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$G$2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$G$2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$G$2</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47388E2-AAE8-43C8-BC5D-5896C93377A1}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$C$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$C$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$C$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$C$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$D$2</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$D$2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$D$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$D$2</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$D$2</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$E$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$E$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$E$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$E$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$E$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$F$2</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$F$2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$F$2</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$F$2</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$F$2</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$G$2</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$G$2</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$G$2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$G$2</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$G$2</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C45C42-E061-4333-9A34-463F1D492D9A}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>2030</v>
+      </c>
+      <c r="C1">
+        <v>2040</v>
+      </c>
+      <c r="D1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7789FF66-E3AE-4F9B-9F71-862E1C267453}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$C$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$C$2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$C$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$C$2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$C$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$C$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$C$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$C$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$C$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$C$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$C$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$C$2</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$D$2</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$D$2</f>
+        <v>0.48300000000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$D$2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$D$2</f>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$D$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$D$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$D$2</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$D$2</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$D$2</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$D$2</f>
+        <v>0.28350000000000003</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$D$2</f>
+        <v>0.28350000000000003</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$D$2</f>
+        <v>0.28350000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$E$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$E$2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$E$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$E$2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$E$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$E$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$E$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$E$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$E$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$E$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$E$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$E$2</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$F$2</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$F$2</f>
+        <v>0.437</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$F$2</f>
+        <v>0.38</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$F$2</f>
+        <v>0.27549999999999997</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$F$2</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$F$2</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$F$2</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$F$2</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$F$2</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$F$2</f>
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$F$2</f>
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$F$2</f>
+        <v>0.25650000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$G$2</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$G$2</f>
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$G$2</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$G$2</f>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$G$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$G$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$G$2</f>
+        <v>0.25200000000000006</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$G$2</f>
+        <v>0.25200000000000006</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$G$2</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$G$2</f>
+        <v>0.24300000000000002</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$G$2</f>
+        <v>0.24300000000000002</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$G$2</f>
+        <v>0.24300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD936CAC-3190-4894-8CCF-C07F741DE530}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$C$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$C$2</f>
+        <v>0.11</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$C$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$C$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$C$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$D$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$D$2</f>
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$D$2</f>
+        <v>0.126</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$D$2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$D$2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$D$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$D$2</f>
+        <v>0.126</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$E$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$E$2</f>
+        <v>0.11</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$E$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$E$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$E$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$E$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$E$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$F$2</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$F$2</f>
+        <v>0.1045</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$F$2</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$F$2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$F$2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$F$2</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$F$2</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$G$2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$G$2</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$G$2</f>
+        <v>0.108</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$G$2</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$G$2</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$G$2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$G$2</f>
+        <v>0.108</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19B878-2686-4628-AF4C-F7A1838CEE2A}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$C$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$C$2</f>
+        <v>0.52</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$C$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$C$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$C$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$C$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$C$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$C$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$C$2</f>
+        <v>0.41</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$C$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$C$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$C$2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$D$2</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$D$2</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$D$2</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$D$2</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$D$2</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$D$2</f>
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$D$2</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$D$2</f>
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$D$2</f>
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$D$2</f>
+        <v>0.1575</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$D$2</f>
+        <v>0.1575</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$D$2</f>
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$E$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$E$2</f>
+        <v>0.52</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$E$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$E$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$E$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$E$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$E$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$E$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$E$2</f>
+        <v>0.41</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$E$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$E$2</f>
+        <v>0.15</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$E$2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$F$2</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$F$2</f>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$F$2</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$F$2</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$F$2</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$F$2</f>
+        <v>0.33249999999999996</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$F$2</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$F$2</f>
+        <v>0.33249999999999996</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$F$2</f>
+        <v>0.38949999999999996</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$F$2</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$F$2</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$F$2</f>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$2*Scenarios!$G$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$2*Scenarios!$G$2</f>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$2*Scenarios!$G$2</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$2*Scenarios!$G$2</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$2*Scenarios!$G$2</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$2*Scenarios!$G$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$2*Scenarios!$G$2</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$2*Scenarios!$G$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$2*Scenarios!$G$2</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$2*Scenarios!$G$2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$2*Scenarios!$G$2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$2*Scenarios!$G$2</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111B6319-066E-4340-9AF4-F2B163DED3BB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2040</v>
+      </c>
+      <c r="E1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>345</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143</v>
+      </c>
+      <c r="D2" s="2">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>345</v>
+      </c>
+      <c r="C3" s="2">
+        <v>198</v>
+      </c>
+      <c r="D3" s="2">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>345</v>
+      </c>
+      <c r="C4" s="2">
+        <v>248</v>
+      </c>
+      <c r="D4" s="2">
+        <v>248</v>
+      </c>
+      <c r="E4" s="2">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B572FD-490A-4B19-841A-3BE93797BAEE}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2040</v>
+      </c>
+      <c r="E1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <f>(1/5)*'Investment Cost NREL'!B3*1000</f>
+        <v>69000</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(1/5)*'Investment Cost NREL'!C3*1000</f>
+        <v>39600</v>
+      </c>
+      <c r="D2" s="2">
+        <f>(1/5)*'Investment Cost NREL'!D3*1000</f>
+        <v>34800.000000000007</v>
+      </c>
+      <c r="E2" s="2">
+        <f>(1/5)*'Investment Cost NREL'!E3*1000</f>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <f>(4/5)*'Investment Cost NREL'!B3*1000</f>
+        <v>276000</v>
+      </c>
+      <c r="C3" s="2">
+        <f>(4/5)*'Investment Cost NREL'!C3*1000</f>
+        <v>158400</v>
+      </c>
+      <c r="D3" s="2">
+        <f>(4/5)*'Investment Cost NREL'!D3*1000</f>
+        <v>139200.00000000003</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(4/5)*'Investment Cost NREL'!E3*1000</f>
+        <v>119200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F5FC8-CF35-4F33-8EB9-D8A2EB0A0537}">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="P3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1496683-6AFD-4B3D-94FF-7E7F3E684C49}">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24C7C44-EE15-4C03-8A82-39CCA44AA4C7}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$C$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$C$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$C$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$C$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$D$2</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$D$2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$D$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$D$2</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$D$2</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$E$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$E$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$E$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$E$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$E$2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$F$2</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$F$2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$F$2</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$F$2</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$F$2</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$3*Scenarios!$G$2</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$3*Scenarios!$G$2</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$3*Scenarios!$G$2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$3*Scenarios!$G$2</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$3*Scenarios!$G$2</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C369E7-B6AB-45B9-B040-9F1CCECCDAF3}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$C$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$C$2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$C$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$C$2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$C$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$C$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$C$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$C$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$C$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$C$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$C$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$C$2</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$D$2</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$D$2</f>
+        <v>0.48300000000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$D$2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$D$2</f>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$D$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$D$2</f>
+        <v>0.315</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$D$2</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$D$2</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$D$2</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$D$2</f>
+        <v>0.28350000000000003</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$D$2</f>
+        <v>0.28350000000000003</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$D$2</f>
+        <v>0.28350000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$E$2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$E$2</f>
+        <v>0.46</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$E$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$E$2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$E$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$E$2</f>
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$E$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$E$2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$E$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$E$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$E$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$E$2</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$F$2</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$F$2</f>
+        <v>0.437</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$F$2</f>
+        <v>0.38</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$F$2</f>
+        <v>0.27549999999999997</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$F$2</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$F$2</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$F$2</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$F$2</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$F$2</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$F$2</f>
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$F$2</f>
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$F$2</f>
+        <v>0.25650000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!B$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!C$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!D$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!E$2*Scenarios!$G$2</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!F$2*Scenarios!$G$2</f>
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!G$2*Scenarios!$G$2</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!H$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!I$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!J$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!K$2*Scenarios!$G$2</f>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!L$2*Scenarios!$G$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!M$2*Scenarios!$G$2</f>
+        <v>0.27</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!N$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!O$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!P$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Q$2*Scenarios!$G$2</f>
+        <v>0.25200000000000006</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!R$2*Scenarios!$G$2</f>
+        <v>0.25200000000000006</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!S$2*Scenarios!$G$2</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!T$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!U$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!V$2*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!W$2*Scenarios!$G$2</f>
+        <v>0.24300000000000002</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!X$2*Scenarios!$G$2</f>
+        <v>0.24300000000000002</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Summer'!Y$2*Scenarios!$G$2</f>
+        <v>0.24300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2E0CA-A0FD-445F-A847-1F5CF14E55ED}">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$C$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$C$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$C$2</f>
+        <v>0.11</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$C$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$C$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$C$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$C$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$C$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$C$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$D$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$D$2</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$D$2</f>
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$D$2</f>
+        <v>0.126</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$D$2</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$D$2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$D$2</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$D$2</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$D$2</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$D$2</f>
+        <v>0.126</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$D$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$E$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$E$2</f>
+        <v>0.11</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$E$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$E$2</f>
+        <v>0.08</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$E$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$E$2</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$E$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$E$2</f>
+        <v>0.09</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$E$2</f>
+        <v>0.12</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$F$2</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$F$2</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$F$2</f>
+        <v>0.1045</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$F$2</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$F$2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$F$2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$F$2</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$F$2</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="U5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$F$2</f>
+        <v>8.5499999999999993E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$F$2</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="W5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!B$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!C$3*Scenarios!$G$2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!D$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!E$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!F$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!G$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!H$3*Scenarios!$G$2</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!I$3*Scenarios!$G$2</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!J$3*Scenarios!$G$2</f>
+        <v>0.108</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!K$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!L$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!M$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!N$3*Scenarios!$G$2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!O$3*Scenarios!$G$2</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!P$3*Scenarios!$G$2</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Q$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!R$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!S$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!T$3*Scenarios!$G$2</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!U$3*Scenarios!$G$2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!V$3*Scenarios!$G$2</f>
+        <v>0.108</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!W$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!X$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'Normalized Curves, 2020, Winter'!Y$3*Scenarios!$G$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>